--- a/Resources/Unit 06-02 Excel_SOL.xlsx
+++ b/Resources/Unit 06-02 Excel_SOL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mutasim/Job_Trciks &amp; Strategies/My Folder/Campus_Interview/Univ of Alabama/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mutasim/Mutasim-Personal-Course-2/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BD6991-D7C3-3B4B-AEEC-0351CB78B0A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514C7A68-D707-5D44-8449-123183ADE77B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37640" yWindow="680" windowWidth="34560" windowHeight="21000" xr2:uid="{987B80B7-134B-4E9D-9DE3-ABFCBE4E1804}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="21680" xr2:uid="{987B80B7-134B-4E9D-9DE3-ABFCBE4E1804}"/>
   </bookViews>
   <sheets>
     <sheet name="Example1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
   <si>
     <t>mean</t>
   </si>
@@ -238,6 +238,15 @@
   </si>
   <si>
     <t>increased 1.25 st. dev's</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>p2-p1</t>
   </si>
 </sst>
 </file>
@@ -342,7 +351,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -355,7 +364,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -694,7 +702,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -806,6 +814,9 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
       <c r="B23" s="2">
         <f>B25-B27</f>
         <v>0.84516468336337036</v>
@@ -820,6 +831,9 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
       <c r="B25">
         <f>_xlfn.NORM.DIST(2.41,0,1,1)</f>
         <v>0.99202373973926627</v>
@@ -834,6 +848,9 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
       <c r="B27">
         <f>_xlfn.NORM.DIST(-1.05,0,1,1)</f>
         <v>0.14685905637589594</v>
@@ -910,7 +927,6 @@
         <f>1-B12</f>
         <v>6.1780176711811907E-2</v>
       </c>
-      <c r="C10" s="12"/>
       <c r="D10" s="2">
         <f>1-_xlfn.NORM.DIST(4170,3400,500,1)</f>
         <v>6.1780176711811907E-2</v>
@@ -1070,7 +1086,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1106,6 +1122,9 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
       <c r="B7" s="2">
         <f>B9-B11</f>
         <v>0.68268949213708607</v>
@@ -1120,6 +1139,9 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
       <c r="B9">
         <f>_xlfn.NORM.DIST(1,0,1,1)</f>
         <v>0.84134474606854304</v>
@@ -1134,7 +1156,9 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
       <c r="B11">
         <f>_xlfn.NORM.DIST(-1,0,1,1)</f>
         <v>0.15865525393145699</v>
@@ -1154,6 +1178,9 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
       <c r="B15" s="2">
         <f>B17-B19</f>
         <v>0.68268949213708607</v>
@@ -1168,6 +1195,9 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
       <c r="B17">
         <f>_xlfn.NORM.DIST(73,70,3,1)</f>
         <v>0.84134474606854304</v>
@@ -1182,6 +1212,9 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
       <c r="B19">
         <f>_xlfn.NORM.DIST(67,70,3,1)</f>
         <v>0.15865525393145699</v>

--- a/Resources/Unit 06-02 Excel_SOL.xlsx
+++ b/Resources/Unit 06-02 Excel_SOL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mutasim/Mutasim-Personal-Course-2/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514C7A68-D707-5D44-8449-123183ADE77B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693047FD-5358-C441-8934-666099A7325E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="21680" xr2:uid="{987B80B7-134B-4E9D-9DE3-ABFCBE4E1804}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
   <si>
     <t>mean</t>
   </si>
@@ -248,12 +248,15 @@
   <si>
     <t>p2-p1</t>
   </si>
+  <si>
+    <t>1-p1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,6 +308,11 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow (Body)"/>
     </font>
   </fonts>
   <fills count="6">
@@ -360,10 +368,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -702,7 +710,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -734,22 +742,22 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
+      <c r="A10" s="10"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -781,6 +789,9 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
       <c r="B17" s="2">
         <f>1-B19</f>
         <v>0.77935005365735044</v>
@@ -795,6 +806,9 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
       <c r="B19">
         <f>_xlfn.NORM.DIST(-0.77,0,1,TRUE)</f>
         <v>0.22064994634264959</v>
@@ -866,7 +880,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -914,15 +928,17 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>51</v>
+      </c>
       <c r="B10" s="2">
         <f>1-B12</f>
         <v>6.1780176711811907E-2</v>
@@ -933,7 +949,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
@@ -941,7 +957,9 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
+      <c r="A12" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="B12">
         <f>_xlfn.NORM.DIST(4170,3400,500,1)</f>
         <v>0.93821982328818809</v>
@@ -961,6 +979,9 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
       <c r="B16" s="2">
         <f>B18-B20</f>
         <v>0.15007522187158473</v>
@@ -975,6 +996,9 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
       <c r="B18">
         <f>_xlfn.NORM.DIST(4170,3400,500,1)</f>
         <v>0.93821982328818809</v>
@@ -989,6 +1013,9 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
       <c r="B20">
         <f>_xlfn.NORM.DIST(3800,3400,500,1)</f>
         <v>0.78814460141660336</v>
